--- a/BDD/Spain/energy-spain.xlsx
+++ b/BDD/Spain/energy-spain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leatr\Documents\Césure\Zenon\EnergyLimits\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leatr\Documents\Césure\Zenon\EnergyLimits\BDD\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45D7605C-6A03-4F64-BF44-4E7A89B6E4B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107CF426-36AC-4792-9386-3465438835E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8BC2987D-7FF8-48C6-AF21-3F49BCE59877}"/>
   </bookViews>
